--- a/Save_001.xlsx
+++ b/Save_001.xlsx
@@ -416,13 +416,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
   </cols>
@@ -435,7 +435,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>IzY2ZTg3Yw==</t>
+          <t>NjU1</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IzAwMDAwMA==</t>
+          <t>Mzcw</t>
         </is>
       </c>
     </row>
@@ -459,7 +459,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IzM2Y2Q0Mg==</t>
+          <t>NjU1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NjU1</t>
         </is>
       </c>
     </row>
